--- a/2022/Symphony/Others/Emergency Format/Retail Name update.xlsx
+++ b/2022/Symphony/Others/Emergency Format/Retail Name update.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Dealer ID</t>
   </si>
@@ -29,6 +29,30 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Rowshon Mobile</t>
+  </si>
+  <si>
+    <t>Desh Telecom</t>
+  </si>
+  <si>
+    <t>RET-07856</t>
+  </si>
+  <si>
+    <t>DEL-0179</t>
+  </si>
+  <si>
+    <t>Old Retailer Name</t>
+  </si>
+  <si>
+    <t>Update Retailer Name</t>
+  </si>
+  <si>
+    <t>Md. Ariful Haque</t>
+  </si>
+  <si>
+    <t>Md Mojnu Ali</t>
   </si>
 </sst>
 </file>
@@ -100,14 +124,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,23 +453,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="6" width="20.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,80 +484,126 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
